--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALE\Personal\ALE-网络自动化\Automation-with-ALE-Omniswitch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E2A8A8-57C3-4C31-8D90-E119AD78F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F385155-FF38-4439-9997-ED9C9D85E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3247" yWindow="3247" windowWidth="16200" windowHeight="9398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,13 @@
     <sheet name="设备信息" sheetId="1" r:id="rId1"/>
     <sheet name="cisco_ios" sheetId="2" r:id="rId2"/>
     <sheet name="huawei" sheetId="3" r:id="rId3"/>
-    <sheet name="alcatel_aos" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>序号</t>
   </si>
@@ -55,9 +54,6 @@
     <t>启用</t>
   </si>
   <si>
-    <t>192.168.1.1</t>
-  </si>
-  <si>
     <t>ssh</t>
   </si>
   <si>
@@ -140,30 +136,6 @@
   </si>
   <si>
     <t>display diagnostic-information</t>
-  </si>
-  <si>
-    <t>show system</t>
-  </si>
-  <si>
-    <t>show configuration snapshot</t>
-  </si>
-  <si>
-    <t>show interfaces status</t>
-  </si>
-  <si>
-    <t>show ip interface</t>
-  </si>
-  <si>
-    <t>show vlan</t>
-  </si>
-  <si>
-    <t>show mac-address-table</t>
-  </si>
-  <si>
-    <t>show chassis</t>
-  </si>
-  <si>
-    <t>show health</t>
   </si>
   <si>
     <t>#</t>
@@ -183,6 +155,14 @@
   </si>
   <si>
     <t>10.10.10.68</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.10.10.176</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cisco</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +520,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -587,25 +567,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
       </c>
       <c r="E2">
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -613,28 +593,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>22</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -642,25 +622,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
       </c>
       <c r="E4">
         <v>23</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -671,22 +651,22 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -697,22 +677,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -723,22 +703,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -772,7 +752,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -780,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -788,7 +768,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -796,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -804,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -812,7 +792,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -820,15 +800,15 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +821,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -854,7 +836,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -862,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -870,7 +852,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -878,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -886,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -894,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -902,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -910,121 +892,15 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
